--- a/assets/data/warning.xlsx
+++ b/assets/data/warning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\Sem4\Visual Studio Code\ProjectNew\flutter_application_1\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A1872-0C0A-4A71-9448-D8BDB78BAA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B353786-E382-49CA-A5CA-79E80B2D45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="276" windowWidth="16332" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,8 +347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C1">
         <v>5</v>
@@ -376,19 +376,19 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H1">
         <v>5</v>
       </c>
       <c r="I1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J1">
         <v>15</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
